--- a/Proyecto/Formato de costos/Plantilla Gestión del Proyecto,final.xlsx
+++ b/Proyecto/Formato de costos/Plantilla Gestión del Proyecto,final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Wilmar.WR\Proyecto_sena\Proyecto\Formato de costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFB626D-8897-4C83-B837-EA8ACA8646AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC9E38D-245A-4F51-8CF2-D55907892891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-120" windowWidth="19695" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,18 @@
     <sheet name="Presupuesto" sheetId="4" r:id="rId4"/>
     <sheet name="Informes" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>ACTUAL</t>
   </si>
@@ -289,9 +292,6 @@
     <t>Juan David Martin</t>
   </si>
   <si>
-    <t>Cesar Rodriguez</t>
-  </si>
-  <si>
     <t>ff</t>
   </si>
   <si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Suma de Juan David Martin</t>
-  </si>
-  <si>
-    <t>Suma de Cesar Rodriguez</t>
   </si>
   <si>
     <t>Agending system cwksd</t>
@@ -547,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1089,17 +1086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1108,17 +1094,6 @@
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1138,21 +1113,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1256,6 +1216,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1268,7 +1315,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1432,10 +1479,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1515,9 +1558,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1547,20 +1587,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1595,15 +1621,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1615,18 +1633,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="41" fontId="16" fillId="0" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1635,21 +1646,11 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="37" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1669,6 +1670,53 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1679,12 +1727,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1706,32 +1748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1763,14 +1779,35 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1812,63 +1849,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
@@ -1881,38 +1937,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="8" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="34">
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <border>
@@ -2056,68 +2083,18 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2223,6 +2200,53 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <border>
@@ -2370,6 +2394,102 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3467,7 +3587,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6238,9 +6358,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Informes!$A$40:$A$44</c:f>
+              <c:f>Informes!$A$40:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Suma de Karen Bustamante</c:v>
                 </c:pt>
@@ -6253,18 +6373,15 @@
                 <c:pt idx="3">
                   <c:v>Suma de Juan David Martin</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Cesar Rodriguez</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Informes!$B$40:$B$44</c:f>
+              <c:f>Informes!$B$40:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -6275,9 +6392,6 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6315,9 +6429,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Informes!$A$40:$A$44</c:f>
+              <c:f>Informes!$A$40:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Suma de Karen Bustamante</c:v>
                 </c:pt>
@@ -6330,18 +6444,15 @@
                 <c:pt idx="3">
                   <c:v>Suma de Juan David Martin</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Cesar Rodriguez</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Informes!$C$40:$C$44</c:f>
+              <c:f>Informes!$C$40:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -6353,9 +6464,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6392,9 +6500,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Informes!$A$40:$A$44</c:f>
+              <c:f>Informes!$A$40:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Suma de Karen Bustamante</c:v>
                 </c:pt>
@@ -6407,18 +6515,15 @@
                 <c:pt idx="3">
                   <c:v>Suma de Juan David Martin</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Cesar Rodriguez</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Informes!$D$40:$D$44</c:f>
+              <c:f>Informes!$D$40:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -6430,9 +6535,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6469,9 +6571,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Informes!$A$40:$A$44</c:f>
+              <c:f>Informes!$A$40:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Suma de Karen Bustamante</c:v>
                 </c:pt>
@@ -6484,18 +6586,15 @@
                 <c:pt idx="3">
                   <c:v>Suma de Juan David Martin</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Cesar Rodriguez</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Informes!$E$40:$E$44</c:f>
+              <c:f>Informes!$E$40:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -6507,9 +6606,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6546,9 +6642,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Informes!$A$40:$A$44</c:f>
+              <c:f>Informes!$A$40:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Suma de Karen Bustamante</c:v>
                 </c:pt>
@@ -6561,18 +6657,15 @@
                 <c:pt idx="3">
                   <c:v>Suma de Juan David Martin</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Suma de Cesar Rodriguez</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Informes!$F$40:$F$44</c:f>
+              <c:f>Informes!$F$40:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -6584,9 +6677,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8568,15 +8658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>904874</xdr:colOff>
+      <xdr:colOff>923924</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1933573</xdr:colOff>
+      <xdr:colOff>1952623</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8607,11 +8697,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wilmar.Rincom" refreshedDate="44015.973484490743" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wilmar.Rincom" refreshedDate="44233.444435069447" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B11:G17" sheet="Recursos"/>
+    <worksheetSource ref="B10:F16" sheet="Recursos"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="5">
     <cacheField name="Actividades" numFmtId="0">
       <sharedItems count="7">
         <s v="FASE  DE ANALISIS"/>
@@ -8635,9 +8725,6 @@
     <cacheField name="Juan David Martin" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="1"/>
     </cacheField>
-    <cacheField name="Cesar Rodriguez" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
-    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8655,7 +8742,6 @@
     <n v="1"/>
     <n v="0.99999999999999989"/>
     <n v="1"/>
-    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -8663,7 +8749,6 @@
     <n v="0.2"/>
     <n v="0.5"/>
     <n v="0.1"/>
-    <n v="0.3"/>
   </r>
   <r>
     <x v="2"/>
@@ -8671,7 +8756,6 @@
     <n v="0.15"/>
     <n v="0.2"/>
     <n v="0.1"/>
-    <n v="0.5"/>
   </r>
   <r>
     <x v="3"/>
@@ -8679,14 +8763,12 @@
     <n v="0.15"/>
     <n v="0.2"/>
     <n v="0.2"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="0.1"/>
     <n v="0.45"/>
     <n v="0.1"/>
-    <n v="0.2"/>
     <n v="0.2"/>
   </r>
   <r>
@@ -8695,15 +8777,14 @@
     <n v="0.05"/>
     <n v="0"/>
     <n v="0.4"/>
-    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica6" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A38:G44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica6" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A38:G43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
       <items count="8">
         <item x="4"/>
@@ -8720,12 +8801,11 @@
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -8737,9 +8817,6 @@
     </i>
     <i i="3">
       <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -8765,57 +8842,82 @@
       <x/>
     </i>
   </colItems>
-  <dataFields count="5">
+  <dataFields count="4">
     <dataField name="Suma de Karen Bustamante" fld="1" baseField="0" baseItem="0"/>
     <dataField name="Suma de Wilmar Rincon" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Suma de Gloria Bohorquez" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Suma de Juan David Martin" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Cesar Rodriguez" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="10">
+  <formats count="12">
     <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="30">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="31">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="32">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="5">
+          <reference field="4294967294" count="4">
             <x v="0"/>
             <x v="1"/>
             <x v="2"/>
             <x v="3"/>
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="4" selected="0">
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <chartFormats count="5">
@@ -9216,8 +9318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AN469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9240,16 +9342,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -9282,14 +9384,14 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -9325,8 +9427,8 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="196" t="s">
-        <v>83</v>
+      <c r="D3" s="122" t="s">
+        <v>81</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -9369,7 +9471,7 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="197">
+      <c r="D4" s="123">
         <v>43748</v>
       </c>
       <c r="E4" s="9"/>
@@ -9452,15 +9554,15 @@
     <row r="6" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="138" t="s">
+      <c r="F6" s="139"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="142"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -9530,7 +9632,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
@@ -9565,13 +9667,13 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="24"/>
@@ -9605,24 +9707,24 @@
       <c r="AN9" s="1"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="84">
+      <c r="B10" s="82">
         <v>1</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="197">
+      <c r="D10" s="128"/>
+      <c r="E10" s="123">
         <v>43748</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="123">
         <v>43774</v>
       </c>
       <c r="G10" s="24">
         <f>F10-E10</f>
         <v>26</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="103" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="26">
@@ -9653,13 +9755,13 @@
       <c r="AN10" s="1"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <v>2</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="134"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="23">
         <v>43775</v>
       </c>
@@ -9701,13 +9803,13 @@
       <c r="AN11" s="1"/>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B12" s="84">
+      <c r="B12" s="82">
         <v>3</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="141"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="23">
         <v>43785</v>
       </c>
@@ -9753,15 +9855,15 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="84">
+      <c r="B13" s="82">
         <v>4</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
       <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9801,17 +9903,17 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="84">
+      <c r="B14" s="82">
         <v>5</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="198">
+      <c r="D14" s="144"/>
+      <c r="E14" s="124">
         <v>44005</v>
       </c>
-      <c r="F14" s="198">
+      <c r="F14" s="124">
         <v>44008</v>
       </c>
       <c r="G14" s="24">
@@ -9849,18 +9951,18 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="35">
         <f>J16/J17</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -9887,17 +9989,17 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="84">
+      <c r="B16" s="82">
         <v>6</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="198">
+      <c r="D16" s="128"/>
+      <c r="E16" s="124">
         <v>43971</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="124">
         <v>43978</v>
       </c>
       <c r="G16" s="24">
@@ -9912,7 +10014,7 @@
       </c>
       <c r="J16" s="34">
         <f>SUM(I16:I22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -9939,17 +10041,17 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="84">
+      <c r="B17" s="82">
         <v>7</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="198">
+      <c r="D17" s="128"/>
+      <c r="E17" s="124">
         <v>44005</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="124">
         <v>44008</v>
       </c>
       <c r="G17" s="24">
@@ -9991,17 +10093,17 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="84">
+      <c r="B18" s="82">
         <v>8</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="198">
+      <c r="D18" s="128"/>
+      <c r="E18" s="124">
         <v>43992</v>
       </c>
-      <c r="F18" s="198">
+      <c r="F18" s="124">
         <v>43997</v>
       </c>
       <c r="G18" s="24">
@@ -10039,17 +10141,17 @@
       <c r="AN18" s="1"/>
     </row>
     <row r="19" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="82">
         <v>9</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="198">
+      <c r="D19" s="128"/>
+      <c r="E19" s="124">
         <v>43992</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="124">
         <v>44002</v>
       </c>
       <c r="G19" s="24">
@@ -10087,15 +10189,15 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="84">
+      <c r="B20" s="82">
         <v>10</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10104,7 +10206,7 @@
         <v>35</v>
       </c>
       <c r="I20" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -10131,17 +10233,17 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="84">
+      <c r="B21" s="82">
         <v>11</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="198">
+      <c r="D21" s="130"/>
+      <c r="E21" s="124">
         <v>43998</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="124">
         <v>44008</v>
       </c>
       <c r="G21" s="24">
@@ -10179,17 +10281,17 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="84">
+      <c r="B22" s="82">
         <v>12</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="198">
+      <c r="D22" s="128"/>
+      <c r="E22" s="124">
         <v>43977</v>
       </c>
-      <c r="F22" s="198">
+      <c r="F22" s="124">
         <v>44008</v>
       </c>
       <c r="G22" s="24">
@@ -10227,13 +10329,13 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
-      <c r="C23" s="148" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="36">
@@ -10265,17 +10367,17 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="84">
+      <c r="B24" s="82">
         <v>13</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="198">
+      <c r="D24" s="128"/>
+      <c r="E24" s="124">
         <v>44044</v>
       </c>
-      <c r="F24" s="198">
+      <c r="F24" s="124">
         <v>44212</v>
       </c>
       <c r="G24" s="24">
@@ -10317,17 +10419,17 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="84">
+      <c r="B25" s="82">
         <v>14</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="198">
+      <c r="D25" s="128"/>
+      <c r="E25" s="124">
         <v>44045</v>
       </c>
-      <c r="F25" s="198">
+      <c r="F25" s="124">
         <v>44213</v>
       </c>
       <c r="G25" s="24">
@@ -10369,11 +10471,11 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="131" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="132"/>
+      <c r="D26" s="137"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
@@ -10407,17 +10509,17 @@
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="84">
+      <c r="B27" s="82">
         <v>15</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="198">
+      <c r="D27" s="128"/>
+      <c r="E27" s="124">
         <v>44216</v>
       </c>
-      <c r="F27" s="198">
+      <c r="F27" s="124">
         <v>44228</v>
       </c>
       <c r="G27" s="24">
@@ -10459,17 +10561,17 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="84">
+      <c r="B28" s="82">
         <v>16</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="198">
+      <c r="D28" s="128"/>
+      <c r="E28" s="124">
         <v>44224</v>
       </c>
-      <c r="F28" s="198">
+      <c r="F28" s="124">
         <v>44244</v>
       </c>
       <c r="G28" s="24">
@@ -10511,9 +10613,9 @@
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
@@ -10544,24 +10646,24 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="86"/>
-      <c r="C30" s="142" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="87">
+      <c r="D30" s="126"/>
+      <c r="E30" s="85">
         <f>E11</f>
         <v>43775</v>
       </c>
-      <c r="F30" s="87">
+      <c r="F30" s="85">
         <f>F28</f>
         <v>44244</v>
       </c>
-      <c r="G30" s="128">
+      <c r="G30" s="115">
         <f t="shared" si="0"/>
         <v>469</v>
       </c>
-      <c r="H30" s="128"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="28"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -21266,17 +21368,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C26:D26"/>
@@ -21291,6 +21382,17 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -21320,646 +21422,561 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M34"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="21.875" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="19.375" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
-    <col min="21" max="21" width="15.875" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="16.875" customWidth="1"/>
-    <col min="26" max="26" width="18.375" customWidth="1"/>
-    <col min="27" max="27" width="18.625" customWidth="1"/>
-    <col min="28" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="12.375" customWidth="1"/>
-    <col min="30" max="47" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.375" customWidth="1"/>
-    <col min="49" max="67" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="29.375" customWidth="1"/>
-    <col min="69" max="87" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="27" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="19.375" customWidth="1"/>
+    <col min="19" max="19" width="25.125" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="18.375" customWidth="1"/>
+    <col min="26" max="26" width="18.625" customWidth="1"/>
+    <col min="27" max="27" width="14.5" customWidth="1"/>
+    <col min="28" max="28" width="12.375" customWidth="1"/>
+    <col min="29" max="46" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.375" customWidth="1"/>
+    <col min="48" max="66" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29.375" customWidth="1"/>
+    <col min="68" max="86" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="27" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="150" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-    </row>
-    <row r="3" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+    </row>
+    <row r="3" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="151" t="s">
+      <c r="F4" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="153"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="78">
         <v>1</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="75">
         <v>1200</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="113" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="151"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="78">
         <v>1</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="75">
         <v>1200</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
+      <c r="F6" s="149"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="78">
         <v>1</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <v>1200</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="113" t="s">
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="78">
         <v>1</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>1200</v>
       </c>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="159"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="80">
-        <v>1</v>
-      </c>
-      <c r="D9" s="76">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="F8" s="152"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
+    </row>
+    <row r="9" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="75" t="str">
+      <c r="C10" s="74" t="str">
         <f>B5</f>
         <v>Karen Bustamante</v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D10" s="74" t="str">
         <f>B6</f>
         <v>Wilmar Rincon</v>
       </c>
-      <c r="E11" s="75" t="str">
+      <c r="E10" s="74" t="str">
         <f>B7</f>
         <v>Gloria Bohorquez</v>
       </c>
-      <c r="F11" s="75" t="str">
+      <c r="F10" s="74" t="str">
         <f>B8</f>
         <v>Juan David Martin</v>
       </c>
-      <c r="G11" s="94" t="str">
-        <f>B9</f>
-        <v>Cesar Rodriguez</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129" t="str">
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="116" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C12" s="116">
-        <f>SUM(C13:C17)</f>
+      <c r="C11" s="106">
+        <f>SUM(C12:C16)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="116">
-        <f t="shared" ref="D12" si="0">SUM(D13:D17)</f>
+      <c r="D11" s="106">
+        <f t="shared" ref="D11" si="0">SUM(D12:D16)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="116">
-        <f>SUM(E13:E17)</f>
+      <c r="E11" s="106">
+        <f>SUM(E12:E16)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F12" s="116">
-        <f>SUM(F13:F17)</f>
+      <c r="F11" s="106">
+        <f>SUM(F12:F16)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="117">
-        <f>SUM(G13:G17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="95" t="str">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="200" t="str">
         <f>Planificación!C10</f>
         <v>Levantamiento de información</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C12" s="86">
         <v>0.1</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D12" s="86">
         <v>0.2</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E12" s="86">
         <v>0.5</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F12" s="86">
         <v>0.1</v>
       </c>
-      <c r="G13" s="96">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="95" t="str">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="200" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C13" s="86">
         <v>0.1</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D13" s="86">
         <v>0.15</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E13" s="86">
         <v>0.2</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F13" s="86">
         <v>0.1</v>
       </c>
-      <c r="G14" s="96">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="95" t="str">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="200" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C14" s="86">
         <v>0.1</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D14" s="86">
         <v>0.15</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E14" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F14" s="86">
         <v>0.2</v>
       </c>
-      <c r="G15" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="95" t="str">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="200" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C15" s="86">
         <v>0.1</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D15" s="86">
         <v>0.45</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E15" s="86">
         <v>0.1</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F15" s="86">
         <v>0.2</v>
       </c>
-      <c r="G16" s="96">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="95" t="str">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="200" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C16" s="86">
         <v>0.6</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D16" s="86">
         <v>0.05</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E16" s="86">
         <v>0</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F16" s="86">
         <v>0.4</v>
       </c>
-      <c r="G17" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="129" t="str">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="201" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C18" s="115">
-        <f>SUM(C19:C25)</f>
+      <c r="C17" s="105">
+        <f>SUM(C18:C24)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="115">
-        <f>SUM(D19:D25)</f>
+      <c r="D17" s="105">
+        <f>SUM(D18:D24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E18" s="115">
-        <f>SUM(E19:E25)</f>
+      <c r="E17" s="105">
+        <f>SUM(E18:E24)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="115">
-        <f>SUM(F19:F25)</f>
+      <c r="F17" s="105">
+        <f>SUM(F18:F24)</f>
         <v>1</v>
       </c>
-      <c r="G18" s="118">
-        <f>SUM(G19:G25)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="95" t="str">
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="200" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C18" s="86">
         <v>0.1</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D18" s="86">
         <v>0.2</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E18" s="86">
         <v>0.1</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F18" s="86">
         <v>0.1</v>
       </c>
-      <c r="G19" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="M19" s="89"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="str">
+      <c r="L18" s="87"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="200" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C19" s="86">
         <v>0.2</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D19" s="86">
         <v>0.2</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E19" s="86">
         <v>0.1</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F19" s="86">
         <v>0.1</v>
       </c>
-      <c r="G20" s="96">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="95" t="str">
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="200" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C20" s="86">
         <v>0.1</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D20" s="86">
         <v>0.1</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E20" s="86">
         <v>0.4</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F20" s="86">
         <v>0.3</v>
       </c>
-      <c r="G21" s="96">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="95" t="str">
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="200" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C21" s="86">
         <v>0.1</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D21" s="86">
         <v>0.2</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E21" s="86">
         <v>0.1</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F21" s="86">
         <v>0.1</v>
       </c>
-      <c r="G22" s="96">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="95" t="str">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="200" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C22" s="86">
         <v>0.2</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D22" s="86">
         <v>0.1</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E22" s="86">
         <v>0.1</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F22" s="86">
         <v>0.2</v>
       </c>
-      <c r="G23" s="96">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="95" t="str">
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="200" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C23" s="86">
         <v>0.1</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D23" s="86">
         <v>0.1</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E23" s="86">
         <v>0.1</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F23" s="86">
         <v>0.1</v>
       </c>
-      <c r="G24" s="96">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="95" t="str">
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="200" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C24" s="86">
         <v>0.2</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D24" s="86">
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E24" s="86">
         <v>0.1</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F24" s="86">
         <v>0.1</v>
       </c>
-      <c r="G25" s="96">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="129" t="str">
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="201" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C26" s="115">
-        <f>SUM(C27:C28)</f>
+      <c r="C25" s="105">
+        <f>SUM(C26:C27)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="115">
-        <f t="shared" ref="D26:G26" si="1">SUM(D27:D28)</f>
+      <c r="D25" s="105">
+        <f t="shared" ref="D25:F25" si="1">SUM(D26:D27)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="115">
+      <c r="E25" s="105">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F25" s="105">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G26" s="118">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="95" t="str">
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="200" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C26" s="86">
         <v>0.5</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D26" s="86">
         <v>0.1</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E26" s="86">
         <v>0.9</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F26" s="86">
         <v>0.5</v>
       </c>
-      <c r="G27" s="96">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="95" t="str">
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="200" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C27" s="86">
         <v>0.5</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D27" s="86">
         <v>0.9</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E27" s="86">
         <v>0.1</v>
       </c>
-      <c r="F28" s="88">
+      <c r="F27" s="86">
         <v>0.5</v>
       </c>
-      <c r="G28" s="96">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="129" t="str">
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="201" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C29" s="115">
-        <f>SUM(C30:C31)</f>
+      <c r="C28" s="105">
+        <f>SUM(C29:C30)</f>
         <v>1</v>
       </c>
-      <c r="D29" s="115">
-        <f t="shared" ref="D29:G29" si="2">SUM(D30:D31)</f>
+      <c r="D28" s="105">
+        <f t="shared" ref="D28:F28" si="2">SUM(D29:D30)</f>
         <v>1</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E28" s="105">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F28" s="105">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G29" s="118">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="95" t="str">
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="200" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C29" s="86">
         <v>0</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D29" s="86">
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E29" s="86">
         <v>0.1</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F29" s="86">
         <v>1</v>
       </c>
-      <c r="G30" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="95" t="str">
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="200" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
       </c>
-      <c r="C31" s="93">
+      <c r="C30" s="91">
         <v>1</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D30" s="91">
         <v>0.2</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E30" s="91">
         <v>0.9</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F30" s="91">
         <v>0</v>
       </c>
-      <c r="G31" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F4:L8"/>
+    <mergeCell ref="F4:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:G11 B12" unlockedFormula="1"/>
+    <ignoredError sqref="C10:F10 B11" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21968,14 +21985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="119" customWidth="1"/>
+    <col min="2" max="2" width="28" style="107" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.625" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
@@ -21985,19 +22002,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="180" t="s">
+      <c r="L2" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="176">
+      <c r="M2" s="158">
         <f>M7</f>
         <v>5047200</v>
       </c>
-      <c r="N2" s="177"/>
+      <c r="N2" s="159"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L3" s="180"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="45"/>
@@ -22012,27 +22029,27 @@
       <c r="L4" s="44"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="120"/>
-      <c r="C5" s="160" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="160" t="s">
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="173" t="s">
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="174"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="181" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="181" t="s">
+      <c r="N5" s="163" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="38" t="s">
@@ -22040,7 +22057,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="46" t="s">
@@ -22067,846 +22084,846 @@
       <c r="J6" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="61" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
       <c r="O6" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52"/>
       <c r="E7" s="53"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="65">
+      <c r="F7" s="98"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="64">
         <f>M8+M14+M22+M25</f>
         <v>5047200</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="64">
         <f>SUM(N8:N28)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="64">
         <f>M7-N7</f>
         <v>5047200</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="123" t="str">
+      <c r="B8" s="190" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="63">
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="182">
         <f>SUM(E9:E13)</f>
         <v>880800</v>
       </c>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="106">
+      <c r="F8" s="171"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="178">
         <f>SUM(I9:I13)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="165"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="64">
+      <c r="J8" s="167"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="63">
         <f>SUM(L9:L13)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="66">
         <f>E8+I8+L8</f>
         <v>880800</v>
       </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="73">
+      <c r="N8" s="68"/>
+      <c r="O8" s="72">
         <f t="shared" ref="O8:O28" si="0">M8-N8</f>
         <v>880800</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="124" t="str">
+      <c r="B9" s="191" t="str">
         <f>Planificación!C10</f>
         <v>Levantamiento de información</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="185">
         <f>Planificación!G10*8</f>
         <v>208</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="186">
         <v>1200</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="183">
         <f>C9*D9</f>
         <v>249600</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="108">
+      <c r="F9" s="100"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="179">
         <f>G9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="102"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="55">
+      <c r="L9" s="54">
         <f>K9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="67">
         <f>SUM(E9+I9+L9)</f>
         <v>249600</v>
       </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="73">
+      <c r="N9" s="69"/>
+      <c r="O9" s="72">
         <f t="shared" si="0"/>
         <v>249600</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="124" t="str">
+      <c r="B10" s="191" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="185">
         <f>Planificación!G11*8</f>
         <v>104</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="186">
         <v>1200</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="183">
         <f t="shared" ref="E10:E27" si="1">C10*D10</f>
         <v>124800</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="108">
+      <c r="F10" s="100"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="179">
         <f t="shared" ref="I10:I13" si="2">G10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="102"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="55">
+      <c r="L10" s="54">
         <f t="shared" ref="L10:L13" si="3">K10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="67">
         <f t="shared" ref="M10:M27" si="4">SUM(E10+I10+L10)</f>
         <v>124800</v>
       </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="73">
+      <c r="N10" s="69"/>
+      <c r="O10" s="72">
         <f t="shared" si="0"/>
         <v>124800</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="124" t="str">
+      <c r="B11" s="191" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="185">
         <f>Planificación!G12*8</f>
         <v>368</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="186">
         <v>1200</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="183">
         <f t="shared" si="1"/>
         <v>441600</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="108">
+      <c r="F11" s="100"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="102"/>
+      <c r="J11" s="96"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="55">
+      <c r="L11" s="54">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="67">
         <f t="shared" si="4"/>
         <v>441600</v>
       </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="73">
+      <c r="N11" s="69"/>
+      <c r="O11" s="72">
         <f t="shared" si="0"/>
         <v>441600</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="124" t="str">
+      <c r="B12" s="191" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="185">
         <v>30</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="187">
         <v>1200</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="183">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="108">
+      <c r="F12" s="100"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="55">
+      <c r="J12" s="96"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="54">
         <f>K12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="67">
         <v>20000</v>
       </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="73">
+      <c r="N12" s="69"/>
+      <c r="O12" s="72">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="str">
+      <c r="B13" s="191" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="185">
         <f>Planificación!G14*8</f>
         <v>24</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="186">
         <v>1200</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="183">
         <f t="shared" si="1"/>
         <v>28800</v>
       </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="108">
+      <c r="F13" s="100"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="102"/>
+      <c r="J13" s="96"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="55">
+      <c r="L13" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="67">
         <f t="shared" si="4"/>
         <v>28800</v>
       </c>
-      <c r="N13" s="70"/>
-      <c r="O13" s="73">
+      <c r="N13" s="69"/>
+      <c r="O13" s="72">
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="123" t="str">
+      <c r="B14" s="190" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="63">
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="182">
         <f>SUM(E15:E21)</f>
         <v>633600</v>
       </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="106">
+      <c r="F14" s="173"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="178">
         <f>SUM(I15:I21)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="63">
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="62">
         <f>SUM(L15:L21)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="74">
+      <c r="M14" s="73">
         <f>E14+I14+L14</f>
         <v>633600</v>
       </c>
-      <c r="N14" s="70"/>
-      <c r="O14" s="73">
+      <c r="N14" s="69"/>
+      <c r="O14" s="72">
         <f t="shared" si="0"/>
         <v>633600</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="124" t="str">
+      <c r="B15" s="191" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="185">
         <f>Planificación!G16*8</f>
         <v>56</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="186">
         <v>1200</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="183">
         <f t="shared" si="1"/>
         <v>67200</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="108">
+      <c r="F15" s="100"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="179">
         <f>G15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="102"/>
+      <c r="J15" s="96"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="55">
+      <c r="L15" s="54">
         <f>K15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="67">
         <f t="shared" si="4"/>
         <v>67200</v>
       </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="73">
+      <c r="N15" s="69"/>
+      <c r="O15" s="72">
         <f t="shared" si="0"/>
         <v>67200</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="124" t="str">
+      <c r="B16" s="191" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="185">
         <f>Planificación!G17*8</f>
         <v>24</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="186">
         <v>1200</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="183">
         <f t="shared" si="1"/>
         <v>28800</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="108">
+      <c r="F16" s="100"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="179">
         <f t="shared" ref="I16:I21" si="5">G16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="102"/>
+      <c r="J16" s="96"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="55">
+      <c r="L16" s="54">
         <f t="shared" ref="L16:L21" si="6">K16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="67">
         <f t="shared" si="4"/>
         <v>28800</v>
       </c>
-      <c r="N16" s="70"/>
-      <c r="O16" s="73">
+      <c r="N16" s="69"/>
+      <c r="O16" s="72">
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="124" t="str">
+      <c r="B17" s="191" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="185">
         <f>Planificación!G18*8</f>
         <v>40</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="186">
         <v>1200</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="183">
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="108">
+      <c r="F17" s="100"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="179">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" s="102"/>
+      <c r="J17" s="96"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="55">
+      <c r="L17" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="67">
         <f t="shared" si="4"/>
         <v>48000</v>
       </c>
-      <c r="N17" s="70"/>
-      <c r="O17" s="73">
+      <c r="N17" s="69"/>
+      <c r="O17" s="72">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="124" t="str">
+      <c r="B18" s="191" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="185">
         <f>Planificación!G19*8</f>
         <v>80</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="186">
         <v>1200</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="183">
         <f t="shared" si="1"/>
         <v>96000</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="108">
+      <c r="F18" s="100"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="179">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="102"/>
+      <c r="J18" s="96"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="55">
+      <c r="L18" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M18" s="68">
+      <c r="M18" s="67">
         <f t="shared" si="4"/>
         <v>96000</v>
       </c>
-      <c r="N18" s="70"/>
-      <c r="O18" s="73">
+      <c r="N18" s="69"/>
+      <c r="O18" s="72">
         <f t="shared" si="0"/>
         <v>96000</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="124" t="str">
+      <c r="B19" s="191" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="185">
         <f>Planificación!G20*8</f>
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="186">
         <v>1200</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="183">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="108">
+      <c r="F19" s="100"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="179">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="102"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="55">
+      <c r="L19" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="70"/>
-      <c r="O19" s="73">
+      <c r="N19" s="69"/>
+      <c r="O19" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="124" t="str">
+      <c r="B20" s="191" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="185">
         <f>Planificación!G21*8</f>
         <v>80</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="186">
         <v>1200</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="183">
         <f t="shared" si="1"/>
         <v>96000</v>
       </c>
-      <c r="F20" s="107"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="108">
+      <c r="F20" s="100"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="179">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="102"/>
+      <c r="J20" s="96"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="55">
+      <c r="L20" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="67">
         <f t="shared" si="4"/>
         <v>96000</v>
       </c>
-      <c r="N20" s="70"/>
-      <c r="O20" s="73">
+      <c r="N20" s="69"/>
+      <c r="O20" s="72">
         <f t="shared" si="0"/>
         <v>96000</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="str">
+      <c r="B21" s="191" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="185">
         <f>Planificación!G22*8</f>
         <v>248</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="186">
         <v>1200</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="183">
         <f>C21*D21</f>
         <v>297600</v>
       </c>
-      <c r="F21" s="107"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="108">
+      <c r="F21" s="100"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="179">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="102"/>
+      <c r="J21" s="96"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="55">
+      <c r="L21" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="67">
         <f t="shared" si="4"/>
         <v>297600</v>
       </c>
-      <c r="N21" s="70"/>
-      <c r="O21" s="73">
+      <c r="N21" s="69"/>
+      <c r="O21" s="72">
         <f t="shared" si="0"/>
         <v>297600</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="123" t="str">
+      <c r="B22" s="190" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="63">
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="182">
         <f>SUM(E23:E24)</f>
         <v>3225600</v>
       </c>
-      <c r="F22" s="171"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="106">
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="178">
         <f>SUM(I23:I24)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="167"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="63">
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="62">
         <f>SUM(L23:L24)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="74">
+      <c r="M22" s="73">
         <f>E22+I22+L22</f>
         <v>3225600</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="73">
+      <c r="N22" s="69"/>
+      <c r="O22" s="72">
         <f t="shared" si="0"/>
         <v>3225600</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="str">
+      <c r="B23" s="191" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="185">
         <f>Planificación!G24*8</f>
         <v>1344</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="186">
         <v>1200</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="183">
         <f>C23*D23</f>
         <v>1612800</v>
       </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="108">
+      <c r="F23" s="100"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="179">
         <f>G23*H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="102"/>
+      <c r="J23" s="96"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="55">
+      <c r="L23" s="54">
         <f>K23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="67">
         <f t="shared" si="4"/>
         <v>1612800</v>
       </c>
-      <c r="N23" s="70"/>
-      <c r="O23" s="73">
+      <c r="N23" s="69"/>
+      <c r="O23" s="72">
         <f t="shared" si="0"/>
         <v>1612800</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="124" t="str">
+      <c r="B24" s="191" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="185">
         <f>Planificación!G25*8</f>
         <v>1344</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="186">
         <v>1200</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="183">
         <f t="shared" si="1"/>
         <v>1612800</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="108">
+      <c r="F24" s="100"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="179">
         <f>G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="102"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="55">
+      <c r="L24" s="54">
         <f>K24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="68">
+      <c r="M24" s="67">
         <f t="shared" si="4"/>
         <v>1612800</v>
       </c>
-      <c r="N24" s="70"/>
-      <c r="O24" s="73">
+      <c r="N24" s="69"/>
+      <c r="O24" s="72">
         <f t="shared" si="0"/>
         <v>1612800</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="123" t="str">
+      <c r="B25" s="190" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="63">
+      <c r="C25" s="188"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="182">
         <f>SUM(E26:E27)</f>
         <v>307200</v>
       </c>
-      <c r="F25" s="171"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="106">
+      <c r="F25" s="173"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="178">
         <f>SUM(I26:I27)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="167"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="63">
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="62">
         <f>SUM(L26:L27)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="74">
+      <c r="M25" s="73">
         <f>E25+I25+L25</f>
         <v>307200</v>
       </c>
-      <c r="N25" s="70"/>
-      <c r="O25" s="73">
+      <c r="N25" s="69"/>
+      <c r="O25" s="72">
         <f t="shared" si="0"/>
         <v>307200</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="124" t="str">
+      <c r="B26" s="191" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="185">
         <f>Planificación!G27*8</f>
         <v>96</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="186">
         <v>1200</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="183">
         <f t="shared" si="1"/>
         <v>115200</v>
       </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="108">
+      <c r="F26" s="100"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="179">
         <f>G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="102"/>
+      <c r="J26" s="96"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="55">
+      <c r="L26" s="54">
         <f>K26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="68">
+      <c r="M26" s="67">
         <f t="shared" si="4"/>
         <v>115200</v>
       </c>
-      <c r="N26" s="70"/>
-      <c r="O26" s="73">
+      <c r="N26" s="69"/>
+      <c r="O26" s="72">
         <f t="shared" si="0"/>
         <v>115200</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="124" t="str">
+      <c r="B27" s="111" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="185">
         <f>Planificación!G28*8</f>
         <v>160</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="186">
         <v>1200</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="183">
         <f t="shared" si="1"/>
         <v>192000</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="108">
+      <c r="F27" s="100"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="179">
         <f>G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="102"/>
+      <c r="J27" s="96"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="55">
+      <c r="L27" s="54">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="68">
+      <c r="M27" s="67">
         <f t="shared" si="4"/>
         <v>192000</v>
       </c>
-      <c r="N27" s="70"/>
-      <c r="O27" s="73">
+      <c r="N27" s="69"/>
+      <c r="O27" s="72">
         <f t="shared" si="0"/>
         <v>192000</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="125"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="73">
+      <c r="B28" s="112"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="113" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="50"/>
-      <c r="E29" s="50">
+      <c r="E29" s="181">
         <f>E8+E14+E22+E25</f>
         <v>5047200</v>
       </c>
       <c r="F29" s="50"/>
-      <c r="G29" s="61"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="50"/>
-      <c r="I29" s="50">
+      <c r="I29" s="181">
         <f>I8+I14+I22+I25</f>
         <v>0</v>
       </c>
-      <c r="J29" s="61"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="50">
         <f>SUM(K8:K28)</f>
         <v>0</v>
       </c>
       <c r="L29" s="50"/>
-      <c r="M29" s="66">
+      <c r="M29" s="65">
         <f>SUM(M8:M28)</f>
         <v>10078400</v>
       </c>
@@ -22914,17 +22931,17 @@
         <f>SUM(D29:L29)</f>
         <v>5047200</v>
       </c>
-      <c r="O29" s="72">
+      <c r="O29" s="71">
         <f>M29-N29</f>
         <v>5031200</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="127"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="100"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
@@ -22937,11 +22954,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J14:K14"/>
@@ -22951,11 +22968,11 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:O30">
     <cfRule type="colorScale" priority="2">
@@ -22993,8 +23010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A24:AE46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23075,180 +23092,157 @@
   </cols>
   <sheetData>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
-      <c r="C24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="87"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="90"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
-      <c r="B38" s="186" t="s">
+    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="193"/>
+      <c r="B38" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="188"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="189" t="s">
+      <c r="C38" s="195"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="197"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="183" t="s">
+      <c r="D39" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="190" t="s">
+      <c r="G39" s="192" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="203">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="118">
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="184">
+      <c r="B41" s="205">
+        <v>0.45</v>
+      </c>
+      <c r="C41" s="118">
+        <v>0.15</v>
+      </c>
+      <c r="D41" s="118">
+        <v>0.15</v>
+      </c>
+      <c r="E41" s="118">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="118">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="202" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="205">
         <v>0.1</v>
       </c>
-      <c r="C40" s="184">
+      <c r="C42" s="118">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="118">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="118">
+        <v>0</v>
+      </c>
+      <c r="G42" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="199" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="206">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="120">
         <v>0.1</v>
       </c>
-      <c r="D40" s="184">
+      <c r="E43" s="120">
         <v>0.1</v>
       </c>
-      <c r="E40" s="184">
-        <v>0.1</v>
-      </c>
-      <c r="F40" s="184">
-        <v>0.6</v>
-      </c>
-      <c r="G40" s="192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="191" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="184">
-        <v>0.45</v>
-      </c>
-      <c r="C41" s="184">
-        <v>0.15</v>
-      </c>
-      <c r="D41" s="184">
-        <v>0.15</v>
-      </c>
-      <c r="E41" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="F41" s="184">
-        <v>0.05</v>
-      </c>
-      <c r="G41" s="192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="191" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="184">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="184">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="184">
-        <v>0</v>
-      </c>
-      <c r="G42" s="192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="C43" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="D43" s="184">
-        <v>0.1</v>
-      </c>
-      <c r="E43" s="184">
-        <v>0.1</v>
-      </c>
-      <c r="F43" s="184">
+      <c r="F43" s="120">
         <v>0.4</v>
       </c>
-      <c r="G43" s="192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="194">
-        <v>0.2</v>
-      </c>
-      <c r="C44" s="194">
-        <v>0</v>
-      </c>
-      <c r="D44" s="194">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="194">
-        <v>0.3</v>
-      </c>
-      <c r="F44" s="194">
-        <v>0</v>
-      </c>
-      <c r="G44" s="195">
+      <c r="G43" s="121">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
